--- a/FetchApi/demo.xlsx
+++ b/FetchApi/demo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{12872606-BD01-4131-B824-0EBA6747BFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EB946751-4C3E-4DA7-BB44-8B8A1A80D7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14520" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14560" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Data" sheetId="1" r:id="rId1"/>
@@ -16,20 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Shukla</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Gupta</t>
   </si>
   <si>
-    <t>Adwards</t>
-  </si>
-  <si>
-    <t>Schultz</t>
-  </si>
-  <si>
     <t>trackname</t>
   </si>
   <si>
@@ -39,37 +30,10 @@
     <t xml:space="preserve">ownership </t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>two</t>
   </si>
   <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>cmdc</t>
-  </si>
-  <si>
-    <t>cadc</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
     <t>crdit</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>FetchController</t>
   </si>
   <si>
     <t>apiname</t>
@@ -430,81 +394,42 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
